--- a/wikidata/hal_field_audit_out/Wikidata_upec_chemical_20_conteo.xlsx
+++ b/wikidata/hal_field_audit_out/Wikidata_upec_chemical_20_conteo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanda\Documents\Langara_College\DANA-4850-001-Capstone_Project\hall-api-test-db-mysql\wikidata\hal_field_audit_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2768EDA1-7B13-467F-9E61-30C7C9EDD6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9553FD-E754-4F53-9427-FFF8DCAC13EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{7CE82651-D189-4583-9CC8-EB750387BE3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CE82651-D189-4583-9CC8-EB750387BE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Wikidata_upec_chemical_20" sheetId="1" r:id="rId1"/>
@@ -6140,10 +6140,10 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -6520,11 +6520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFBF9E5-3600-44BA-AFA0-9406E99D1C18}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q371"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O316" sqref="O316"/>
+    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6583,7 +6582,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1006198</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1006198</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1006198</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1006198</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1006198</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006198</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006198</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1006198</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1006198</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1006198</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1006198</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1006198</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1006198</v>
       </c>
@@ -7016,7 +7015,7 @@
       <c r="L14">
         <v>113</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="24" t="s">
         <v>1825</v>
       </c>
       <c r="P14" t="s">
@@ -7026,7 +7025,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1025697</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1025697</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1025697</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1025697</v>
       </c>
@@ -7174,7 +7173,7 @@
       <c r="N18" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="24" t="s">
         <v>1825</v>
       </c>
       <c r="P18" t="s">
@@ -7184,7 +7183,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1025697</v>
       </c>
@@ -7231,7 +7230,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1025697</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1060481</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1060481</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1060481</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1060481</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1060481</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1064801</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1064801</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1064801</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1064801</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1064801</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1064801</v>
       </c>
@@ -7636,7 +7635,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1064801</v>
       </c>
@@ -7680,7 +7679,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1064801</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1064801</v>
       </c>
@@ -7768,7 +7767,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1064801</v>
       </c>
@@ -7812,7 +7811,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1064801</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1064801</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1067996</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1067996</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1067996</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1067996</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1078652</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1078652</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1078652</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1078652</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1078652</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1078652</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1078652</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1078652</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1078652</v>
       </c>
@@ -8363,7 +8362,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1078652</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1078652</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1078652</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1078652</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1078652</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1078652</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1078652</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1078652</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1078652</v>
       </c>
@@ -8705,7 +8704,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1078652</v>
       </c>
@@ -8743,7 +8742,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1078652</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1078652</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1078652</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1078652</v>
       </c>
@@ -8895,7 +8894,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1078652</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1078652</v>
       </c>
@@ -8971,7 +8970,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1078652</v>
       </c>
@@ -9009,7 +9008,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1078652</v>
       </c>
@@ -9047,7 +9046,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1078652</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1078652</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1078652</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1078652</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1078652</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1078652</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1078652</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1078652</v>
       </c>
@@ -9351,7 +9350,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1078652</v>
       </c>
@@ -9389,7 +9388,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1078652</v>
       </c>
@@ -9427,7 +9426,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1078652</v>
       </c>
@@ -9471,7 +9470,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1078896</v>
       </c>
@@ -9500,7 +9499,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1078896</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1078896</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1083001</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1083001</v>
       </c>
@@ -9628,7 +9627,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1083001</v>
       </c>
@@ -9672,7 +9671,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1083001</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1083001</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1083001</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1083001</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1083001</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1083001</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1083001</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1083001</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1083001</v>
       </c>
@@ -10068,7 +10067,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1083001</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1083001</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1083001</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1083001</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1083001</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1083001</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1083001</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1083001</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1083001</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1083001</v>
       </c>
@@ -10508,7 +10507,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1083001</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1083001</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1083001</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1083001</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1083001</v>
       </c>
@@ -10728,7 +10727,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1083001</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1083001</v>
       </c>
@@ -10816,7 +10815,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1083001</v>
       </c>
@@ -10860,7 +10859,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1083001</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1083001</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1083004</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1083004</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1083004</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1083004</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1083007</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1083007</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1083007</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1083007</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1083007</v>
       </c>
@@ -11305,7 +11304,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1083007</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1083007</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1083007</v>
       </c>
@@ -11437,7 +11436,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1083007</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1083007</v>
       </c>
@@ -11525,7 +11524,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1083007</v>
       </c>
@@ -11569,7 +11568,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1083007</v>
       </c>
@@ -11613,7 +11612,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1083007</v>
       </c>
@@ -11657,7 +11656,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1083007</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1083007</v>
       </c>
@@ -11745,7 +11744,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1083007</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1083007</v>
       </c>
@@ -11833,7 +11832,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1083007</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1083007</v>
       </c>
@@ -11921,7 +11920,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1083007</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1083007</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1083007</v>
       </c>
@@ -12053,7 +12052,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1083007</v>
       </c>
@@ -12097,7 +12096,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1083007</v>
       </c>
@@ -12141,7 +12140,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1083007</v>
       </c>
@@ -12185,7 +12184,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1083007</v>
       </c>
@@ -12229,7 +12228,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1083007</v>
       </c>
@@ -12273,7 +12272,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1083007</v>
       </c>
@@ -12317,7 +12316,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1083014</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1083014</v>
       </c>
@@ -12390,7 +12389,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1083014</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1083014</v>
       </c>
@@ -12478,7 +12477,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1083014</v>
       </c>
@@ -12522,7 +12521,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1083014</v>
       </c>
@@ -12566,7 +12565,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1083014</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1083014</v>
       </c>
@@ -12654,7 +12653,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1083014</v>
       </c>
@@ -12698,7 +12697,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1083014</v>
       </c>
@@ -12742,7 +12741,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1083014</v>
       </c>
@@ -12786,7 +12785,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1083014</v>
       </c>
@@ -12830,7 +12829,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1083014</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1083014</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1083014</v>
       </c>
@@ -12962,7 +12961,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1083014</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1083014</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1083014</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1083014</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1083014</v>
       </c>
@@ -13182,7 +13181,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1083014</v>
       </c>
@@ -13226,7 +13225,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1083014</v>
       </c>
@@ -13270,7 +13269,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1083014</v>
       </c>
@@ -13314,7 +13313,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1083014</v>
       </c>
@@ -13358,7 +13357,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1083014</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1083014</v>
       </c>
@@ -13446,7 +13445,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1083014</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1083157</v>
       </c>
@@ -13519,7 +13518,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1083157</v>
       </c>
@@ -13548,7 +13547,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1083160</v>
       </c>
@@ -13577,7 +13576,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1083160</v>
       </c>
@@ -13606,7 +13605,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1084520</v>
       </c>
@@ -13647,7 +13646,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1084520</v>
       </c>
@@ -13688,7 +13687,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1084520</v>
       </c>
@@ -13729,7 +13728,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1084520</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1084520</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1084520</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1084520</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1084520</v>
       </c>
@@ -13922,7 +13921,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1084520</v>
       </c>
@@ -13960,7 +13959,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1084520</v>
       </c>
@@ -13998,7 +13997,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1084520</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1084520</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1084520</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1084520</v>
       </c>
@@ -14150,7 +14149,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1084520</v>
       </c>
@@ -14188,7 +14187,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1084520</v>
       </c>
@@ -14226,7 +14225,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1084520</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1084520</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1084520</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1084520</v>
       </c>
@@ -14378,7 +14377,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1084520</v>
       </c>
@@ -14416,7 +14415,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1084520</v>
       </c>
@@ -14454,7 +14453,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1084520</v>
       </c>
@@ -14492,7 +14491,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1084520</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1084520</v>
       </c>
@@ -14568,7 +14567,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1084520</v>
       </c>
@@ -14606,7 +14605,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1084520</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1084520</v>
       </c>
@@ -14682,7 +14681,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1084520</v>
       </c>
@@ -14720,7 +14719,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1084520</v>
       </c>
@@ -14758,7 +14757,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1084520</v>
       </c>
@@ -14796,7 +14795,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1084520</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1084520</v>
       </c>
@@ -14872,7 +14871,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1084520</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1084520</v>
       </c>
@@ -14948,7 +14947,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1084520</v>
       </c>
@@ -14986,7 +14985,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1084520</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1084520</v>
       </c>
@@ -15062,7 +15061,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1084520</v>
       </c>
@@ -15100,7 +15099,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1084520</v>
       </c>
@@ -15138,7 +15137,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1084520</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1084520</v>
       </c>
@@ -15214,7 +15213,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1084520</v>
       </c>
@@ -15252,7 +15251,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1084520</v>
       </c>
@@ -15290,7 +15289,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1084520</v>
       </c>
@@ -15328,7 +15327,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1084520</v>
       </c>
@@ -15366,7 +15365,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1084520</v>
       </c>
@@ -15404,7 +15403,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1084520</v>
       </c>
@@ -15442,7 +15441,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1084657</v>
       </c>
@@ -15483,7 +15482,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1084657</v>
       </c>
@@ -15524,7 +15523,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1084657</v>
       </c>
@@ -15571,7 +15570,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1084657</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1084657</v>
       </c>
@@ -15665,7 +15664,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1084657</v>
       </c>
@@ -15712,7 +15711,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1084657</v>
       </c>
@@ -15759,7 +15758,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1084657</v>
       </c>
@@ -15806,7 +15805,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1084657</v>
       </c>
@@ -15853,7 +15852,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1084657</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1084657</v>
       </c>
@@ -15947,7 +15946,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1084657</v>
       </c>
@@ -15994,7 +15993,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1084657</v>
       </c>
@@ -16041,7 +16040,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1084657</v>
       </c>
@@ -16088,7 +16087,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1084657</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1084657</v>
       </c>
@@ -16182,7 +16181,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1084657</v>
       </c>
@@ -16229,7 +16228,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1084657</v>
       </c>
@@ -16276,7 +16275,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1084657</v>
       </c>
@@ -16323,7 +16322,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1084657</v>
       </c>
@@ -16352,7 +16351,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1084657</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1084678</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1084678</v>
       </c>
@@ -16463,7 +16462,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1084678</v>
       </c>
@@ -16492,7 +16491,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1084678</v>
       </c>
@@ -16521,7 +16520,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1084678</v>
       </c>
@@ -16562,7 +16561,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1084678</v>
       </c>
@@ -16600,7 +16599,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1084678</v>
       </c>
@@ -16638,7 +16637,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1084678</v>
       </c>
@@ -16676,7 +16675,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1084678</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1084678</v>
       </c>
@@ -16752,7 +16751,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1084678</v>
       </c>
@@ -16790,7 +16789,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1084678</v>
       </c>
@@ -16828,7 +16827,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1084678</v>
       </c>
@@ -16866,7 +16865,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1086746</v>
       </c>
@@ -16895,7 +16894,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1086746</v>
       </c>
@@ -16924,7 +16923,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1086746</v>
       </c>
@@ -16953,7 +16952,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1086746</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1086746</v>
       </c>
@@ -17011,7 +17010,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1086746</v>
       </c>
@@ -17040,7 +17039,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1086746</v>
       </c>
@@ -17081,7 +17080,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1086746</v>
       </c>
@@ -17125,7 +17124,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1086746</v>
       </c>
@@ -17169,7 +17168,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1086746</v>
       </c>
@@ -17210,7 +17209,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1086746</v>
       </c>
@@ -17251,7 +17250,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1086746</v>
       </c>
@@ -17292,7 +17291,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1086752</v>
       </c>
@@ -17321,7 +17320,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1086752</v>
       </c>
@@ -17356,7 +17355,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1086752</v>
       </c>
@@ -17385,7 +17384,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1086752</v>
       </c>
@@ -17426,7 +17425,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1086752</v>
       </c>
@@ -17467,7 +17466,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1086752</v>
       </c>
@@ -17508,7 +17507,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1086752</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1086752</v>
       </c>
@@ -17590,7 +17589,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1086752</v>
       </c>
@@ -17631,7 +17630,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1086752</v>
       </c>
@@ -17672,7 +17671,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1086752</v>
       </c>
@@ -17713,7 +17712,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1086752</v>
       </c>
@@ -17754,7 +17753,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1086752</v>
       </c>
@@ -17795,7 +17794,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1087358</v>
       </c>
@@ -17824,7 +17823,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1087358</v>
       </c>
@@ -17853,7 +17852,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1087358</v>
       </c>
@@ -17882,7 +17881,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1087358</v>
       </c>
@@ -17911,7 +17910,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1087358</v>
       </c>
@@ -17952,7 +17951,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1087358</v>
       </c>
@@ -17981,7 +17980,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1088019</v>
       </c>
@@ -18010,7 +18009,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1088019</v>
       </c>
@@ -18039,7 +18038,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1088019</v>
       </c>
@@ -18097,7 +18096,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1088019</v>
       </c>
@@ -18135,7 +18134,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1088019</v>
       </c>
@@ -18173,7 +18172,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1088019</v>
       </c>
@@ -18211,7 +18210,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1088019</v>
       </c>
@@ -18249,7 +18248,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1088019</v>
       </c>
@@ -18287,7 +18286,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1088019</v>
       </c>
@@ -18325,7 +18324,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1088019</v>
       </c>
@@ -18363,7 +18362,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1088019</v>
       </c>
@@ -18401,7 +18400,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1088019</v>
       </c>
@@ -18439,7 +18438,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1088019</v>
       </c>
@@ -18477,7 +18476,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1088019</v>
       </c>
@@ -18515,7 +18514,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1088019</v>
       </c>
@@ -18553,7 +18552,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1088019</v>
       </c>
@@ -18591,7 +18590,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1088019</v>
       </c>
@@ -18629,7 +18628,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1088019</v>
       </c>
@@ -18667,7 +18666,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1088019</v>
       </c>
@@ -18705,7 +18704,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1088019</v>
       </c>
@@ -18743,7 +18742,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1088019</v>
       </c>
@@ -18781,7 +18780,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1088019</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1088019</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1088019</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1088019</v>
       </c>
@@ -19012,7 +19011,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1088019</v>
       </c>
@@ -19050,7 +19049,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1088019</v>
       </c>
@@ -19088,7 +19087,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1088019</v>
       </c>
@@ -19126,7 +19125,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1088019</v>
       </c>
@@ -19164,7 +19163,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1088019</v>
       </c>
@@ -19202,7 +19201,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1088019</v>
       </c>
@@ -19240,7 +19239,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1088019</v>
       </c>
@@ -19278,7 +19277,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1088019</v>
       </c>
@@ -19316,7 +19315,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1088019</v>
       </c>
@@ -19354,7 +19353,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1088019</v>
       </c>
@@ -19392,7 +19391,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1088019</v>
       </c>
@@ -19433,7 +19432,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1088019</v>
       </c>
@@ -19474,7 +19473,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1088019</v>
       </c>
@@ -19515,7 +19514,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1088019</v>
       </c>
@@ -19556,7 +19555,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1088019</v>
       </c>
@@ -19597,7 +19596,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1088019</v>
       </c>
@@ -19638,7 +19637,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1088019</v>
       </c>
@@ -19679,7 +19678,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1088019</v>
       </c>
@@ -19720,7 +19719,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1088019</v>
       </c>
@@ -19761,7 +19760,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1088019</v>
       </c>
@@ -19802,7 +19801,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1088019</v>
       </c>
@@ -19843,7 +19842,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1088019</v>
       </c>
@@ -19884,7 +19883,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1088019</v>
       </c>
@@ -19925,7 +19924,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1088019</v>
       </c>
@@ -19966,7 +19965,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1088019</v>
       </c>
@@ -20007,7 +20006,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1088019</v>
       </c>
@@ -20048,7 +20047,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1088019</v>
       </c>
@@ -20089,7 +20088,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1088019</v>
       </c>
@@ -20130,7 +20129,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1088019</v>
       </c>
@@ -20171,7 +20170,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1088019</v>
       </c>
@@ -20212,7 +20211,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1088019</v>
       </c>
@@ -20253,7 +20252,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1088019</v>
       </c>
@@ -20294,7 +20293,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1088019</v>
       </c>
@@ -20335,7 +20334,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1088019</v>
       </c>
@@ -20376,7 +20375,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1088019</v>
       </c>
@@ -20417,7 +20416,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1088019</v>
       </c>
@@ -20458,7 +20457,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1088019</v>
       </c>
@@ -20499,7 +20498,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1088019</v>
       </c>
@@ -20540,7 +20539,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1088019</v>
       </c>
@@ -20581,7 +20580,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1088019</v>
       </c>
@@ -20622,7 +20621,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1088019</v>
       </c>
@@ -20663,7 +20662,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1088019</v>
       </c>
@@ -20704,7 +20703,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1088019</v>
       </c>
@@ -20745,7 +20744,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1088019</v>
       </c>
@@ -20786,7 +20785,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1088019</v>
       </c>
@@ -20827,7 +20826,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1088019</v>
       </c>
@@ -20868,7 +20867,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1088019</v>
       </c>
@@ -20909,7 +20908,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1088019</v>
       </c>
@@ -20950,7 +20949,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1088019</v>
       </c>
@@ -20991,7 +20990,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1088019</v>
       </c>
@@ -21032,7 +21031,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1088019</v>
       </c>
@@ -21073,7 +21072,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1088019</v>
       </c>
@@ -21115,15 +21114,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q371" xr:uid="{FCFBF9E5-3600-44BA-AFA0-9406E99D1C18}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0305 ATMOSPHERIC COMPOSITION AND STRUCTURE Aerosols and particles"/>
-        <filter val="CLAY NANOCOMPOSITES"/>
-        <filter val="COMPOSITES"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q371" xr:uid="{FCFBF9E5-3600-44BA-AFA0-9406E99D1C18}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -40052,11 +40043,11 @@
       <c r="P2" t="s">
         <v>1708</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="25">
         <f>COUNTIF(O2:O39,"*YES*")/COUNTA(O2:O39)</f>
         <v>0.92105263157894735</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="25">
         <f>COUNTIF(P2:P39,"*YES*")/COUNTA(P2:P39)</f>
         <v>0.92105263157894735</v>
       </c>
@@ -40123,8 +40114,8 @@
       <c r="Q3" s="20" t="s">
         <v>1794</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18" t="str">
         <v>Blockstream</v>
@@ -40184,8 +40175,8 @@
       <c r="P4" t="s">
         <v>1769</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18" t="str">
         <v>Rock glacier</v>
@@ -40245,8 +40236,8 @@
       <c r="P5" t="s">
         <v>1708</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18" t="str">
         <v>Periglacial morphology and process</v>
@@ -40306,8 +40297,8 @@
       <c r="P6" t="s">
         <v>1708</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18" t="str">
         <v>Pleistocene</v>
@@ -40367,8 +40358,8 @@
       <c r="P7" t="s">
         <v>1708</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="18"/>
       <c r="U7" s="18" t="str">
         <v>Late Glacial</v>
@@ -40428,8 +40419,8 @@
       <c r="P8" t="s">
         <v>1708</v>
       </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18" t="str">
         <v>Eastern Velay</v>
@@ -40489,8 +40480,8 @@
       <c r="P9" t="s">
         <v>1708</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="18"/>
       <c r="U9" s="18" t="str">
         <v>MÃ©zenc</v>
@@ -40543,8 +40534,8 @@
       <c r="P10" t="s">
         <v>1708</v>
       </c>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="18"/>
       <c r="U10" s="18" t="str">
         <v>Morphologie et processus pÃ©riglaciaires</v>
@@ -40597,8 +40588,8 @@
       <c r="P11" t="s">
         <v>1708</v>
       </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18" t="str">
         <v>RiviÃ¨re de pierres</v>
@@ -40681,8 +40672,8 @@
       <c r="P12" t="s">
         <v>1708</v>
       </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18" t="str">
         <v>Glacier rocheux</v>
@@ -40775,8 +40766,8 @@
       <c r="P13" t="s">
         <v>1708</v>
       </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18" t="str">
         <v>Velay oriental</v>
@@ -40829,8 +40820,8 @@
       <c r="P14" t="s">
         <v>1708</v>
       </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="18"/>
       <c r="U14" s="18" t="str">
         <v>Massif central franÃ§ais</v>
@@ -40883,8 +40874,8 @@
       <c r="P15" t="s">
         <v>1708</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="18"/>
       <c r="U15" s="18" t="str">
         <v>Tardiglaciaire</v>
@@ -40937,8 +40928,8 @@
       <c r="P16" t="s">
         <v>1708</v>
       </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="18"/>
       <c r="U16" s="18" t="str">
         <v>Dunkl kernel</v>
@@ -40991,8 +40982,8 @@
       <c r="P17" t="s">
         <v>1708</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18" t="str">
         <v>Dihedral root systems</v>
@@ -41045,8 +41036,8 @@
       <c r="P18" t="s">
         <v>1708</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="18"/>
       <c r="U18" s="18" t="str">
         <v>Generalized Bessel function</v>
@@ -41099,8 +41090,8 @@
       <c r="P19" t="s">
         <v>1708</v>
       </c>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="18"/>
       <c r="U19" s="18" t="str">
         <v>Structural dynamics</v>
@@ -41153,8 +41144,8 @@
       <c r="P20" t="s">
         <v>1708</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="18"/>
       <c r="U20" s="18" t="str">
         <v>Model identification</v>
@@ -41207,8 +41198,8 @@
       <c r="P21" t="s">
         <v>1708</v>
       </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
       <c r="T21" s="18"/>
       <c r="U21" s="18" t="str">
         <v>Computational stochastic dynamics</v>
@@ -41261,8 +41252,8 @@
       <c r="P22" t="s">
         <v>1708</v>
       </c>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
       <c r="T22" s="18"/>
       <c r="U22" s="18" t="str">
         <v>Mode crossing</v>
@@ -41315,8 +41306,8 @@
       <c r="P23" t="s">
         <v>1708</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18" t="str">
         <v>Experimental modal analysis</v>
@@ -41369,8 +41360,8 @@
       <c r="P24" t="s">
         <v>1708</v>
       </c>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18" t="str">
         <v>Uncertainty Quantification</v>
@@ -41423,8 +41414,8 @@
       <c r="P25" t="s">
         <v>1708</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
       <c r="T25" s="18"/>
       <c r="U25" s="18" t="str">
         <v>Reduced-order model</v>
@@ -41477,8 +41468,8 @@
       <c r="P26" t="s">
         <v>1708</v>
       </c>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
       <c r="T26" s="18"/>
       <c r="U26" s="18" t="str">
         <v>Global modes</v>
@@ -41531,8 +41522,8 @@
       <c r="P27" t="s">
         <v>1708</v>
       </c>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
       <c r="T27" s="18"/>
       <c r="U27" s="18" t="str">
         <v>Computational model</v>
@@ -41585,8 +41576,8 @@
       <c r="P28" t="s">
         <v>1708</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
       <c r="T28" s="18"/>
       <c r="U28" s="18" t="str">
         <v>Frequency range</v>
@@ -41639,8 +41630,8 @@
       <c r="P29" t="s">
         <v>1708</v>
       </c>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
       <c r="T29" s="18"/>
       <c r="U29" s="18" t="str">
         <v>Medium-frequency range</v>
@@ -41693,8 +41684,8 @@
       <c r="P30" t="s">
         <v>1708</v>
       </c>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
       <c r="T30" s="18"/>
       <c r="U30" s="18" t="str">
         <v>Vibroacoustic</v>
@@ -41747,8 +41738,8 @@
       <c r="P31" t="s">
         <v>1708</v>
       </c>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
       <c r="T31" s="18"/>
       <c r="U31" s="18" t="str">
         <v>Structural Acoustics</v>
@@ -41801,8 +41792,8 @@
       <c r="P32" t="s">
         <v>1708</v>
       </c>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
       <c r="T32" s="18"/>
       <c r="U32" s="18" t="str">
         <v>Vibration</v>
@@ -41843,8 +41834,8 @@
       <c r="P33" t="s">
         <v>1708</v>
       </c>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
       <c r="T33" s="18"/>
       <c r="U33" s="18" t="str">
         <v>Computational Vibroacoustics</v>
@@ -41900,8 +41891,8 @@
       <c r="P34" t="s">
         <v>1708</v>
       </c>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
       <c r="T34" s="18"/>
       <c r="U34" s="18" t="str">
         <v>Nonlinear structural dynamics</v>
@@ -41954,8 +41945,8 @@
       <c r="P35" t="s">
         <v>1769</v>
       </c>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
       <c r="T35" s="18"/>
       <c r="U35" s="18" t="str">
         <v>Mistuned bladed disk</v>
@@ -41996,8 +41987,8 @@
       <c r="P36" t="s">
         <v>1769</v>
       </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="18"/>
       <c r="U36" s="18" t="str">
         <v>Geometrical nonlinearities</v>
@@ -42053,8 +42044,8 @@
       <c r="Q37" s="19" t="s">
         <v>1798</v>
       </c>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
       <c r="T37" s="18"/>
       <c r="U37" s="18" t="str">
         <v>Multiscale methods</v>
@@ -42098,8 +42089,8 @@
       <c r="Q38" t="s">
         <v>1796</v>
       </c>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
       <c r="T38" s="18"/>
       <c r="U38" s="18" t="str">
         <v>Neural Networks</v>
@@ -42155,8 +42146,8 @@
       <c r="Q39" s="20" t="s">
         <v>1794</v>
       </c>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18" t="str">
         <v>High-dimensional approximation</v>
@@ -42209,8 +42200,8 @@
       <c r="Q40" s="20" t="s">
         <v>1793</v>
       </c>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18" t="str">
         <v>Computational homogenization</v>
@@ -42263,8 +42254,8 @@
       <c r="Q41" s="20" t="s">
         <v>1793</v>
       </c>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18" t="str">
         <v>Nonlinear homogenization</v>
@@ -42317,8 +42308,8 @@
       <c r="Q42" s="20" t="s">
         <v>1792</v>
       </c>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
       <c r="T42" s="18"/>
       <c r="U42" s="18" t="str">
         <v>Drillstring dynamics</v>
@@ -42371,8 +42362,8 @@
       <c r="Q43" s="20" t="s">
         <v>1792</v>
       </c>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
       <c r="T43" s="18"/>
       <c r="U43" s="18" t="str">
         <v>Horizontal drillstring</v>
@@ -42425,8 +42416,8 @@
       <c r="Q44" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
       <c r="T44" s="18"/>
       <c r="U44" s="18" t="str">
         <v>Parametric probabilistic approach</v>
@@ -42479,8 +42470,8 @@
       <c r="Q45" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
       <c r="T45" s="18"/>
       <c r="U45" s="18" t="str">
         <v>Robust optimization</v>
@@ -42533,8 +42524,8 @@
       <c r="Q46" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
       <c r="T46" s="18"/>
       <c r="U46" s="18" t="str">
         <v>Optimal sensor placement</v>
@@ -42587,8 +42578,8 @@
       <c r="Q47" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
       <c r="T47" s="18"/>
       <c r="U47" s="18" t="str">
         <v>Model updating</v>
@@ -42641,8 +42632,8 @@
       <c r="Q48" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
       <c r="T48" s="18"/>
       <c r="U48" s="18" t="str">
         <v>Bayesian inference</v>
@@ -42695,8 +42686,8 @@
       <c r="Q49" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
       <c r="T49" s="18"/>
       <c r="U49" s="18" t="str">
         <v>Uncertain position</v>
@@ -42749,8 +42740,8 @@
       <c r="Q50" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
       <c r="T50" s="18"/>
       <c r="U50" s="18"/>
       <c r="V50" s="18"/>
@@ -42798,8 +42789,8 @@
       <c r="Q51" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
       <c r="T51" s="18"/>
       <c r="U51" s="18"/>
       <c r="V51" s="18"/>
@@ -42847,8 +42838,8 @@
       <c r="Q52" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
       <c r="T52" s="18"/>
       <c r="U52" s="18"/>
       <c r="V52" s="18"/>
@@ -42896,8 +42887,8 @@
       <c r="Q53" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
       <c r="T53" s="18"/>
       <c r="U53" s="18"/>
       <c r="V53" s="18"/>
@@ -42945,8 +42936,8 @@
       <c r="Q54" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
       <c r="T54" s="18"/>
       <c r="U54" s="18"/>
       <c r="V54" s="18"/>
@@ -42994,8 +42985,8 @@
       <c r="Q55" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
       <c r="V55" s="18"/>
@@ -43043,8 +43034,8 @@
       <c r="Q56" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
@@ -43092,8 +43083,8 @@
       <c r="Q57" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
       <c r="T57" s="18"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
@@ -43141,8 +43132,8 @@
       <c r="Q58" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
       <c r="T58" s="18"/>
       <c r="U58" s="18"/>
       <c r="V58" s="18"/>
@@ -43190,8 +43181,8 @@
       <c r="Q59" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
       <c r="T59" s="18"/>
       <c r="U59" s="18"/>
       <c r="V59" s="18"/>
@@ -43239,8 +43230,8 @@
       <c r="Q60" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
       <c r="T60" s="18"/>
       <c r="U60" s="18"/>
       <c r="V60" s="18"/>
@@ -43288,8 +43279,8 @@
       <c r="Q61" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
       <c r="T61" s="18"/>
       <c r="U61" s="18"/>
       <c r="V61" s="18"/>
@@ -43337,8 +43328,8 @@
       <c r="Q62" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
       <c r="T62" s="18"/>
       <c r="U62" s="18"/>
       <c r="V62" s="18"/>
@@ -43386,8 +43377,8 @@
       <c r="Q63" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
       <c r="T63" s="18"/>
       <c r="U63" s="18"/>
       <c r="V63" s="18"/>
@@ -43435,8 +43426,8 @@
       <c r="Q64" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
       <c r="T64" s="18"/>
       <c r="U64" s="18"/>
       <c r="V64" s="18"/>
@@ -43484,8 +43475,8 @@
       <c r="Q65" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
       <c r="T65" s="18"/>
       <c r="U65" s="18"/>
       <c r="V65" s="18"/>
@@ -43533,8 +43524,8 @@
       <c r="Q66" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
       <c r="T66" s="18"/>
       <c r="U66" s="18"/>
       <c r="V66" s="18"/>
@@ -43582,8 +43573,8 @@
       <c r="Q67" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
       <c r="T67" s="18"/>
       <c r="U67" s="18"/>
       <c r="V67" s="18"/>
@@ -43631,8 +43622,8 @@
       <c r="Q68" s="20" t="s">
         <v>1791</v>
       </c>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
       <c r="T68" s="18"/>
       <c r="U68" s="18"/>
       <c r="V68" s="18"/>
@@ -43668,8 +43659,8 @@
       <c r="Q69" s="20" t="s">
         <v>1790</v>
       </c>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
       <c r="T69" s="18"/>
       <c r="U69" s="18"/>
       <c r="V69" s="18"/>
@@ -43705,8 +43696,8 @@
       <c r="Q70" s="20" t="s">
         <v>1789</v>
       </c>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
       <c r="T70" s="18"/>
       <c r="U70" s="18"/>
       <c r="V70" s="18"/>
@@ -43754,8 +43745,8 @@
       <c r="Q71" s="20" t="s">
         <v>1782</v>
       </c>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
       <c r="V71" s="18"/>
@@ -43791,11 +43782,11 @@
       <c r="P72" t="s">
         <v>1708</v>
       </c>
-      <c r="R72" s="24">
+      <c r="R72" s="25">
         <f>COUNTIF(O72:O74,"*YES*")/COUNTA(O72:O74)</f>
         <v>1</v>
       </c>
-      <c r="S72" s="24">
+      <c r="S72" s="25">
         <f>COUNTIF(P72:P74,"*YES*")/COUNTA(P72:P74)</f>
         <v>1</v>
       </c>
@@ -43834,8 +43825,8 @@
       <c r="P73" t="s">
         <v>1708</v>
       </c>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
       <c r="T73" s="18"/>
       <c r="U73" s="18"/>
       <c r="V73" s="18"/>
@@ -43871,8 +43862,8 @@
       <c r="P74" t="s">
         <v>1708</v>
       </c>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
       <c r="T74" s="18"/>
       <c r="U74" s="18"/>
       <c r="V74" s="18"/>
@@ -43923,11 +43914,11 @@
       <c r="P75" t="s">
         <v>1708</v>
       </c>
-      <c r="R75" s="24">
+      <c r="R75" s="25">
         <f>COUNTIF(O75:O129,"*YES*")/COUNTA(O75:O129)</f>
         <v>0.94545454545454544</v>
       </c>
-      <c r="S75" s="24">
+      <c r="S75" s="25">
         <f>COUNTIF(P75:P129,"*YES*")/COUNTA(P75:P129)</f>
         <v>1</v>
       </c>
@@ -43981,8 +43972,8 @@
       <c r="P76" t="s">
         <v>1708</v>
       </c>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
       <c r="T76" s="18"/>
       <c r="U76" s="18"/>
       <c r="V76" s="18"/>
@@ -44033,8 +44024,8 @@
       <c r="P77" t="s">
         <v>1708</v>
       </c>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
       <c r="T77" s="18"/>
       <c r="U77" s="18"/>
       <c r="V77" s="18"/>
@@ -44085,8 +44076,8 @@
       <c r="P78" t="s">
         <v>1708</v>
       </c>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
       <c r="T78" s="18"/>
       <c r="U78" s="18"/>
       <c r="V78" s="18"/>
@@ -44122,8 +44113,8 @@
       <c r="P79" t="s">
         <v>1708</v>
       </c>
-      <c r="R79" s="24"/>
-      <c r="S79" s="24"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
       <c r="T79" s="18"/>
       <c r="U79" s="18"/>
       <c r="V79" s="18"/>
@@ -44159,8 +44150,8 @@
       <c r="P80" t="s">
         <v>1708</v>
       </c>
-      <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
       <c r="T80" s="18"/>
       <c r="U80" s="18"/>
       <c r="V80" s="18"/>
@@ -44196,8 +44187,8 @@
       <c r="P81" t="s">
         <v>1708</v>
       </c>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
       <c r="T81" s="18"/>
       <c r="U81" s="18"/>
       <c r="V81" s="18"/>
@@ -44233,8 +44224,8 @@
       <c r="P82" t="s">
         <v>1708</v>
       </c>
-      <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
       <c r="T82" s="18"/>
       <c r="U82" s="18"/>
       <c r="V82" s="18"/>
@@ -44279,8 +44270,8 @@
       <c r="P83" t="s">
         <v>1708</v>
       </c>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
       <c r="T83" s="18"/>
       <c r="U83" s="18"/>
       <c r="V83" s="18"/>
@@ -44325,8 +44316,8 @@
       <c r="P84" t="s">
         <v>1708</v>
       </c>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
       <c r="T84" s="18"/>
       <c r="U84" s="18"/>
       <c r="V84" s="18"/>
@@ -44371,8 +44362,8 @@
       <c r="P85" t="s">
         <v>1769</v>
       </c>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
       <c r="T85" s="18"/>
       <c r="U85" s="18"/>
       <c r="V85" s="18"/>
@@ -44417,8 +44408,8 @@
       <c r="P86" t="s">
         <v>1708</v>
       </c>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
       <c r="T86" s="18"/>
       <c r="U86" s="18"/>
       <c r="V86" s="18"/>
@@ -44463,8 +44454,8 @@
       <c r="P87" t="s">
         <v>1708</v>
       </c>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
       <c r="T87" s="18"/>
       <c r="U87" s="18"/>
       <c r="V87" s="18"/>
@@ -44509,8 +44500,8 @@
       <c r="P88" t="s">
         <v>1708</v>
       </c>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
       <c r="V88" s="18"/>
@@ -44555,8 +44546,8 @@
       <c r="P89" t="s">
         <v>1708</v>
       </c>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
       <c r="V89" s="18"/>
@@ -44601,8 +44592,8 @@
       <c r="P90" t="s">
         <v>1708</v>
       </c>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
       <c r="T90" s="18"/>
       <c r="U90" s="18"/>
       <c r="V90" s="18"/>
@@ -44647,8 +44638,8 @@
       <c r="P91" t="s">
         <v>1769</v>
       </c>
-      <c r="R91" s="24"/>
-      <c r="S91" s="24"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
       <c r="T91" s="18"/>
       <c r="U91" s="18"/>
       <c r="V91" s="18"/>
@@ -44699,8 +44690,8 @@
       <c r="P92" t="s">
         <v>1708</v>
       </c>
-      <c r="R92" s="24"/>
-      <c r="S92" s="24"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
       <c r="T92" s="18"/>
       <c r="U92" s="18"/>
       <c r="V92" s="18"/>
@@ -44751,8 +44742,8 @@
       <c r="P93" t="s">
         <v>1708</v>
       </c>
-      <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
       <c r="T93" s="18"/>
       <c r="U93" s="18"/>
       <c r="V93" s="18"/>
@@ -44803,8 +44794,8 @@
       <c r="P94" t="s">
         <v>1708</v>
       </c>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
       <c r="T94" s="18"/>
       <c r="U94" s="18"/>
       <c r="V94" s="18"/>
@@ -44855,8 +44846,8 @@
       <c r="P95" t="s">
         <v>1708</v>
       </c>
-      <c r="R95" s="24"/>
-      <c r="S95" s="24"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
       <c r="T95" s="18"/>
       <c r="U95" s="18"/>
       <c r="V95" s="18"/>
@@ -44892,8 +44883,8 @@
       <c r="P96" t="s">
         <v>1708</v>
       </c>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
       <c r="T96" s="18"/>
       <c r="U96" s="18"/>
       <c r="V96" s="18"/>
@@ -44938,8 +44929,8 @@
       <c r="Q97" s="20" t="s">
         <v>1753</v>
       </c>
-      <c r="R97" s="24"/>
-      <c r="S97" s="24"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
       <c r="T97" s="18"/>
       <c r="U97" s="18"/>
       <c r="V97" s="18"/>
@@ -44984,8 +44975,8 @@
       <c r="P98" t="s">
         <v>1708</v>
       </c>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
       <c r="T98" s="18"/>
       <c r="U98" s="18"/>
       <c r="V98" s="18"/>
@@ -45030,8 +45021,8 @@
       <c r="P99" t="s">
         <v>1708</v>
       </c>
-      <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
       <c r="T99" s="18"/>
       <c r="U99" s="18"/>
       <c r="V99" s="18"/>
@@ -45076,8 +45067,8 @@
       <c r="P100" t="s">
         <v>1708</v>
       </c>
-      <c r="R100" s="24"/>
-      <c r="S100" s="24"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
       <c r="T100" s="18"/>
       <c r="U100" s="18"/>
       <c r="V100" s="18"/>
@@ -45122,8 +45113,8 @@
       <c r="P101" t="s">
         <v>1708</v>
       </c>
-      <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
       <c r="T101" s="18"/>
       <c r="U101" s="18"/>
       <c r="V101" s="18"/>
@@ -45168,8 +45159,8 @@
       <c r="P102" t="s">
         <v>1708</v>
       </c>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
       <c r="T102" s="18"/>
       <c r="U102" s="18"/>
       <c r="V102" s="18"/>
@@ -45214,8 +45205,8 @@
       <c r="P103" t="s">
         <v>1708</v>
       </c>
-      <c r="R103" s="24"/>
-      <c r="S103" s="24"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
       <c r="T103" s="18"/>
       <c r="U103" s="18"/>
       <c r="V103" s="18"/>
@@ -45260,8 +45251,8 @@
       <c r="P104" t="s">
         <v>1708</v>
       </c>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="25"/>
       <c r="T104" s="18"/>
       <c r="U104" s="18"/>
       <c r="V104" s="18"/>
@@ -45306,8 +45297,8 @@
       <c r="P105" t="s">
         <v>1708</v>
       </c>
-      <c r="R105" s="24"/>
-      <c r="S105" s="24"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="25"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
       <c r="V105" s="18"/>
@@ -45352,8 +45343,8 @@
       <c r="P106" t="s">
         <v>1708</v>
       </c>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="25"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
       <c r="V106" s="18"/>
@@ -45398,8 +45389,8 @@
       <c r="P107" t="s">
         <v>1708</v>
       </c>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="25"/>
       <c r="T107" s="18"/>
       <c r="U107" s="18"/>
       <c r="V107" s="18"/>
@@ -45444,8 +45435,8 @@
       <c r="P108" t="s">
         <v>1708</v>
       </c>
-      <c r="R108" s="24"/>
-      <c r="S108" s="24"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
       <c r="T108" s="18"/>
       <c r="U108" s="18"/>
       <c r="V108" s="18"/>
@@ -45490,8 +45481,8 @@
       <c r="P109" t="s">
         <v>1708</v>
       </c>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
       <c r="T109" s="18"/>
       <c r="U109" s="18"/>
       <c r="V109" s="18"/>
@@ -45536,8 +45527,8 @@
       <c r="P110" t="s">
         <v>1708</v>
       </c>
-      <c r="R110" s="24"/>
-      <c r="S110" s="24"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
       <c r="T110" s="18"/>
       <c r="U110" s="18"/>
       <c r="V110" s="18"/>
@@ -45582,8 +45573,8 @@
       <c r="P111" t="s">
         <v>1708</v>
       </c>
-      <c r="R111" s="24"/>
-      <c r="S111" s="24"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
       <c r="T111" s="18"/>
       <c r="U111" s="18"/>
       <c r="V111" s="18"/>
@@ -45628,8 +45619,8 @@
       <c r="P112" t="s">
         <v>1708</v>
       </c>
-      <c r="R112" s="24"/>
-      <c r="S112" s="24"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
       <c r="T112" s="18"/>
       <c r="U112" s="18"/>
       <c r="V112" s="18"/>
@@ -45674,8 +45665,8 @@
       <c r="P113" t="s">
         <v>1708</v>
       </c>
-      <c r="R113" s="24"/>
-      <c r="S113" s="24"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="25"/>
       <c r="T113" s="18"/>
       <c r="U113" s="18"/>
       <c r="V113" s="18"/>
@@ -45720,8 +45711,8 @@
       <c r="P114" t="s">
         <v>1708</v>
       </c>
-      <c r="R114" s="24"/>
-      <c r="S114" s="24"/>
+      <c r="R114" s="25"/>
+      <c r="S114" s="25"/>
       <c r="T114" s="18"/>
       <c r="U114" s="18"/>
       <c r="V114" s="18"/>
@@ -45766,8 +45757,8 @@
       <c r="P115" t="s">
         <v>1708</v>
       </c>
-      <c r="R115" s="24"/>
-      <c r="S115" s="24"/>
+      <c r="R115" s="25"/>
+      <c r="S115" s="25"/>
       <c r="T115" s="18"/>
       <c r="U115" s="18"/>
       <c r="V115" s="18"/>
@@ -45812,8 +45803,8 @@
       <c r="P116" t="s">
         <v>1708</v>
       </c>
-      <c r="R116" s="24"/>
-      <c r="S116" s="24"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="25"/>
       <c r="T116" s="18"/>
       <c r="U116" s="18"/>
       <c r="V116" s="18"/>
@@ -45858,8 +45849,8 @@
       <c r="P117" t="s">
         <v>1708</v>
       </c>
-      <c r="R117" s="24"/>
-      <c r="S117" s="24"/>
+      <c r="R117" s="25"/>
+      <c r="S117" s="25"/>
       <c r="T117" s="18"/>
       <c r="U117" s="18"/>
       <c r="V117" s="18"/>
@@ -45904,8 +45895,8 @@
       <c r="P118" t="s">
         <v>1708</v>
       </c>
-      <c r="R118" s="24"/>
-      <c r="S118" s="24"/>
+      <c r="R118" s="25"/>
+      <c r="S118" s="25"/>
       <c r="T118" s="18"/>
       <c r="U118" s="18"/>
       <c r="V118" s="18"/>
@@ -45950,8 +45941,8 @@
       <c r="P119" t="s">
         <v>1708</v>
       </c>
-      <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
+      <c r="R119" s="25"/>
+      <c r="S119" s="25"/>
       <c r="T119" s="18"/>
       <c r="U119" s="18"/>
       <c r="V119" s="18"/>
@@ -45996,8 +45987,8 @@
       <c r="P120" t="s">
         <v>1708</v>
       </c>
-      <c r="R120" s="24"/>
-      <c r="S120" s="24"/>
+      <c r="R120" s="25"/>
+      <c r="S120" s="25"/>
       <c r="T120" s="18"/>
       <c r="U120" s="18"/>
       <c r="V120" s="18"/>
@@ -46042,8 +46033,8 @@
       <c r="P121" t="s">
         <v>1708</v>
       </c>
-      <c r="R121" s="24"/>
-      <c r="S121" s="24"/>
+      <c r="R121" s="25"/>
+      <c r="S121" s="25"/>
       <c r="T121" s="18"/>
       <c r="U121" s="18"/>
       <c r="V121" s="18"/>
@@ -46088,8 +46079,8 @@
       <c r="P122" t="s">
         <v>1708</v>
       </c>
-      <c r="R122" s="24"/>
-      <c r="S122" s="24"/>
+      <c r="R122" s="25"/>
+      <c r="S122" s="25"/>
       <c r="T122" s="18"/>
       <c r="U122" s="18"/>
       <c r="V122" s="18"/>
@@ -46134,8 +46125,8 @@
       <c r="P123" t="s">
         <v>1708</v>
       </c>
-      <c r="R123" s="24"/>
-      <c r="S123" s="24"/>
+      <c r="R123" s="25"/>
+      <c r="S123" s="25"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
       <c r="V123" s="18"/>
@@ -46180,8 +46171,8 @@
       <c r="P124" t="s">
         <v>1708</v>
       </c>
-      <c r="R124" s="24"/>
-      <c r="S124" s="24"/>
+      <c r="R124" s="25"/>
+      <c r="S124" s="25"/>
       <c r="T124" s="18"/>
       <c r="U124" s="18"/>
       <c r="V124" s="18"/>
@@ -46226,8 +46217,8 @@
       <c r="P125" t="s">
         <v>1708</v>
       </c>
-      <c r="R125" s="24"/>
-      <c r="S125" s="24"/>
+      <c r="R125" s="25"/>
+      <c r="S125" s="25"/>
       <c r="T125" s="18"/>
       <c r="U125" s="18"/>
       <c r="V125" s="18"/>
@@ -46272,8 +46263,8 @@
       <c r="P126" t="s">
         <v>1708</v>
       </c>
-      <c r="R126" s="24"/>
-      <c r="S126" s="24"/>
+      <c r="R126" s="25"/>
+      <c r="S126" s="25"/>
       <c r="T126" s="18"/>
       <c r="U126" s="18"/>
       <c r="V126" s="18"/>
@@ -46321,8 +46312,8 @@
       <c r="Q127" s="20" t="s">
         <v>1753</v>
       </c>
-      <c r="R127" s="24"/>
-      <c r="S127" s="24"/>
+      <c r="R127" s="25"/>
+      <c r="S127" s="25"/>
       <c r="T127" s="18"/>
       <c r="U127" s="18"/>
       <c r="V127" s="18"/>
@@ -46370,8 +46361,8 @@
       <c r="Q128" s="20" t="s">
         <v>1753</v>
       </c>
-      <c r="R128" s="24"/>
-      <c r="S128" s="24"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
       <c r="T128" s="18"/>
       <c r="U128" s="18"/>
       <c r="V128" s="18"/>
@@ -46407,8 +46398,8 @@
       <c r="P129" t="s">
         <v>1708</v>
       </c>
-      <c r="R129" s="24"/>
-      <c r="S129" s="24"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
       <c r="T129" s="18"/>
       <c r="U129" s="18"/>
       <c r="V129" s="18"/>
@@ -46453,11 +46444,11 @@
       <c r="P130" t="s">
         <v>1708</v>
       </c>
-      <c r="R130" s="24">
+      <c r="R130" s="25">
         <f>COUNTIF(O130:O150,"*YES*")/COUNTA(O130:O150)</f>
         <v>0.90476190476190477</v>
       </c>
-      <c r="S130" s="24">
+      <c r="S130" s="25">
         <f>COUNTIF(P130:P150,"*YES*")/COUNTA(P130:P150)</f>
         <v>1</v>
       </c>
@@ -46502,8 +46493,8 @@
       <c r="P131" t="s">
         <v>1708</v>
       </c>
-      <c r="R131" s="24"/>
-      <c r="S131" s="24"/>
+      <c r="R131" s="25"/>
+      <c r="S131" s="25"/>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132">
@@ -46545,8 +46536,8 @@
       <c r="P132" t="s">
         <v>1708</v>
       </c>
-      <c r="R132" s="24"/>
-      <c r="S132" s="24"/>
+      <c r="R132" s="25"/>
+      <c r="S132" s="25"/>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133">
@@ -46588,8 +46579,8 @@
       <c r="P133" t="s">
         <v>1708</v>
       </c>
-      <c r="R133" s="24"/>
-      <c r="S133" s="24"/>
+      <c r="R133" s="25"/>
+      <c r="S133" s="25"/>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134">
@@ -46631,8 +46622,8 @@
       <c r="P134" t="s">
         <v>1708</v>
       </c>
-      <c r="R134" s="24"/>
-      <c r="S134" s="24"/>
+      <c r="R134" s="25"/>
+      <c r="S134" s="25"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135">
@@ -46674,8 +46665,8 @@
       <c r="P135" t="s">
         <v>1708</v>
       </c>
-      <c r="R135" s="24"/>
-      <c r="S135" s="24"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="25"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136">
@@ -46717,8 +46708,8 @@
       <c r="P136" t="s">
         <v>1708</v>
       </c>
-      <c r="R136" s="24"/>
-      <c r="S136" s="24"/>
+      <c r="R136" s="25"/>
+      <c r="S136" s="25"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137">
@@ -46760,8 +46751,8 @@
       <c r="P137" t="s">
         <v>1708</v>
       </c>
-      <c r="R137" s="24"/>
-      <c r="S137" s="24"/>
+      <c r="R137" s="25"/>
+      <c r="S137" s="25"/>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138">
@@ -46803,8 +46794,8 @@
       <c r="Q138" s="20" t="s">
         <v>1753</v>
       </c>
-      <c r="R138" s="24"/>
-      <c r="S138" s="24"/>
+      <c r="R138" s="25"/>
+      <c r="S138" s="25"/>
     </row>
     <row r="139" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139">
@@ -46852,8 +46843,8 @@
       <c r="Q139" s="19" t="s">
         <v>1747</v>
       </c>
-      <c r="R139" s="24"/>
-      <c r="S139" s="24"/>
+      <c r="R139" s="25"/>
+      <c r="S139" s="25"/>
     </row>
     <row r="140" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140">
@@ -46898,8 +46889,8 @@
       <c r="Q140" s="4" t="s">
         <v>1746</v>
       </c>
-      <c r="R140" s="24"/>
-      <c r="S140" s="24"/>
+      <c r="R140" s="25"/>
+      <c r="S140" s="25"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141">
@@ -46941,8 +46932,8 @@
       <c r="P141" t="s">
         <v>1708</v>
       </c>
-      <c r="R141" s="24"/>
-      <c r="S141" s="24"/>
+      <c r="R141" s="25"/>
+      <c r="S141" s="25"/>
     </row>
     <row r="142" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142">
@@ -46984,8 +46975,8 @@
       <c r="P142" t="s">
         <v>1708</v>
       </c>
-      <c r="R142" s="24"/>
-      <c r="S142" s="24"/>
+      <c r="R142" s="25"/>
+      <c r="S142" s="25"/>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143">
@@ -47027,8 +47018,8 @@
       <c r="P143" t="s">
         <v>1708</v>
       </c>
-      <c r="R143" s="24"/>
-      <c r="S143" s="24"/>
+      <c r="R143" s="25"/>
+      <c r="S143" s="25"/>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144">
@@ -47070,8 +47061,8 @@
       <c r="P144" t="s">
         <v>1708</v>
       </c>
-      <c r="R144" s="24"/>
-      <c r="S144" s="24"/>
+      <c r="R144" s="25"/>
+      <c r="S144" s="25"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145">
@@ -47113,8 +47104,8 @@
       <c r="P145" t="s">
         <v>1708</v>
       </c>
-      <c r="R145" s="24"/>
-      <c r="S145" s="24"/>
+      <c r="R145" s="25"/>
+      <c r="S145" s="25"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146">
@@ -47156,8 +47147,8 @@
       <c r="P146" t="s">
         <v>1708</v>
       </c>
-      <c r="R146" s="24"/>
-      <c r="S146" s="24"/>
+      <c r="R146" s="25"/>
+      <c r="S146" s="25"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147">
@@ -47199,8 +47190,8 @@
       <c r="P147" t="s">
         <v>1708</v>
       </c>
-      <c r="R147" s="24"/>
-      <c r="S147" s="24"/>
+      <c r="R147" s="25"/>
+      <c r="S147" s="25"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148">
@@ -47242,8 +47233,8 @@
       <c r="P148" t="s">
         <v>1708</v>
       </c>
-      <c r="R148" s="24"/>
-      <c r="S148" s="24"/>
+      <c r="R148" s="25"/>
+      <c r="S148" s="25"/>
     </row>
     <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
@@ -47276,8 +47267,8 @@
       <c r="P149" t="s">
         <v>1708</v>
       </c>
-      <c r="R149" s="24"/>
-      <c r="S149" s="24"/>
+      <c r="R149" s="25"/>
+      <c r="S149" s="25"/>
     </row>
     <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
@@ -47310,8 +47301,8 @@
       <c r="P150" t="s">
         <v>1708</v>
       </c>
-      <c r="R150" s="24"/>
-      <c r="S150" s="24"/>
+      <c r="R150" s="25"/>
+      <c r="S150" s="25"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151">
@@ -47353,11 +47344,11 @@
       <c r="P151" t="s">
         <v>1708</v>
       </c>
-      <c r="R151" s="24">
+      <c r="R151" s="25">
         <f>COUNTIF(O151:O162,"*YES*")/COUNTA(O151:O162)</f>
         <v>1</v>
       </c>
-      <c r="S151" s="24">
+      <c r="S151" s="25">
         <f>COUNTIF(P151:P162,"*YES*")/COUNTA(P151:P162)</f>
         <v>1</v>
       </c>
@@ -47402,8 +47393,8 @@
       <c r="P152" t="s">
         <v>1708</v>
       </c>
-      <c r="R152" s="24"/>
-      <c r="S152" s="24"/>
+      <c r="R152" s="25"/>
+      <c r="S152" s="25"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153">
@@ -47445,8 +47436,8 @@
       <c r="P153" t="s">
         <v>1708</v>
       </c>
-      <c r="R153" s="24"/>
-      <c r="S153" s="24"/>
+      <c r="R153" s="25"/>
+      <c r="S153" s="25"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154">
@@ -47488,8 +47479,8 @@
       <c r="P154" t="s">
         <v>1708</v>
       </c>
-      <c r="R154" s="24"/>
-      <c r="S154" s="24"/>
+      <c r="R154" s="25"/>
+      <c r="S154" s="25"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155">
@@ -47531,8 +47522,8 @@
       <c r="P155" t="s">
         <v>1708</v>
       </c>
-      <c r="R155" s="24"/>
-      <c r="S155" s="24"/>
+      <c r="R155" s="25"/>
+      <c r="S155" s="25"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156">
@@ -47574,8 +47565,8 @@
       <c r="P156" t="s">
         <v>1708</v>
       </c>
-      <c r="R156" s="24"/>
-      <c r="S156" s="24"/>
+      <c r="R156" s="25"/>
+      <c r="S156" s="25"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157">
@@ -47617,8 +47608,8 @@
       <c r="P157" t="s">
         <v>1708</v>
       </c>
-      <c r="R157" s="24"/>
-      <c r="S157" s="24"/>
+      <c r="R157" s="25"/>
+      <c r="S157" s="25"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158">
@@ -47660,8 +47651,8 @@
       <c r="P158" t="s">
         <v>1708</v>
       </c>
-      <c r="R158" s="24"/>
-      <c r="S158" s="24"/>
+      <c r="R158" s="25"/>
+      <c r="S158" s="25"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159">
@@ -47703,8 +47694,8 @@
       <c r="P159" t="s">
         <v>1708</v>
       </c>
-      <c r="R159" s="24"/>
-      <c r="S159" s="24"/>
+      <c r="R159" s="25"/>
+      <c r="S159" s="25"/>
     </row>
     <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
@@ -47737,8 +47728,8 @@
       <c r="P160" t="s">
         <v>1708</v>
       </c>
-      <c r="R160" s="24"/>
-      <c r="S160" s="24"/>
+      <c r="R160" s="25"/>
+      <c r="S160" s="25"/>
     </row>
     <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
@@ -47771,8 +47762,8 @@
       <c r="P161" t="s">
         <v>1708</v>
       </c>
-      <c r="R161" s="24"/>
-      <c r="S161" s="24"/>
+      <c r="R161" s="25"/>
+      <c r="S161" s="25"/>
     </row>
     <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
@@ -47805,8 +47796,8 @@
       <c r="P162" t="s">
         <v>1708</v>
       </c>
-      <c r="R162" s="24"/>
-      <c r="S162" s="24"/>
+      <c r="R162" s="25"/>
+      <c r="S162" s="25"/>
     </row>
     <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
@@ -47839,11 +47830,11 @@
       <c r="P163" t="s">
         <v>1708</v>
       </c>
-      <c r="R163" s="24">
+      <c r="R163" s="25">
         <f>COUNTIF(O163:O181,"*YES*")/COUNTA(O163:O181)</f>
         <v>1</v>
       </c>
-      <c r="S163" s="24">
+      <c r="S163" s="25">
         <f>COUNTIF(P163:P181,"*YES*")/COUNTA(P163:P181)</f>
         <v>1</v>
       </c>
@@ -47888,8 +47879,8 @@
       <c r="P164" t="s">
         <v>1708</v>
       </c>
-      <c r="R164" s="24"/>
-      <c r="S164" s="24"/>
+      <c r="R164" s="25"/>
+      <c r="S164" s="25"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165">
@@ -47931,8 +47922,8 @@
       <c r="P165" t="s">
         <v>1708</v>
       </c>
-      <c r="R165" s="24"/>
-      <c r="S165" s="24"/>
+      <c r="R165" s="25"/>
+      <c r="S165" s="25"/>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166">
@@ -47974,8 +47965,8 @@
       <c r="P166" t="s">
         <v>1708</v>
       </c>
-      <c r="R166" s="24"/>
-      <c r="S166" s="24"/>
+      <c r="R166" s="25"/>
+      <c r="S166" s="25"/>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167">
@@ -48017,8 +48008,8 @@
       <c r="P167" t="s">
         <v>1708</v>
       </c>
-      <c r="R167" s="24"/>
-      <c r="S167" s="24"/>
+      <c r="R167" s="25"/>
+      <c r="S167" s="25"/>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168">
@@ -48060,8 +48051,8 @@
       <c r="P168" t="s">
         <v>1708</v>
       </c>
-      <c r="R168" s="24"/>
-      <c r="S168" s="24"/>
+      <c r="R168" s="25"/>
+      <c r="S168" s="25"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169">
@@ -48103,8 +48094,8 @@
       <c r="P169" t="s">
         <v>1708</v>
       </c>
-      <c r="R169" s="24"/>
-      <c r="S169" s="24"/>
+      <c r="R169" s="25"/>
+      <c r="S169" s="25"/>
     </row>
     <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
@@ -48137,8 +48128,8 @@
       <c r="P170" t="s">
         <v>1708</v>
       </c>
-      <c r="R170" s="24"/>
-      <c r="S170" s="24"/>
+      <c r="R170" s="25"/>
+      <c r="S170" s="25"/>
     </row>
     <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
@@ -48171,8 +48162,8 @@
       <c r="P171" t="s">
         <v>1708</v>
       </c>
-      <c r="R171" s="24"/>
-      <c r="S171" s="24"/>
+      <c r="R171" s="25"/>
+      <c r="S171" s="25"/>
     </row>
     <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
@@ -48205,8 +48196,8 @@
       <c r="P172" t="s">
         <v>1708</v>
       </c>
-      <c r="R172" s="24"/>
-      <c r="S172" s="24"/>
+      <c r="R172" s="25"/>
+      <c r="S172" s="25"/>
     </row>
     <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
@@ -48239,8 +48230,8 @@
       <c r="P173" t="s">
         <v>1708</v>
       </c>
-      <c r="R173" s="24"/>
-      <c r="S173" s="24"/>
+      <c r="R173" s="25"/>
+      <c r="S173" s="25"/>
     </row>
     <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
@@ -48273,8 +48264,8 @@
       <c r="P174" t="s">
         <v>1708</v>
       </c>
-      <c r="R174" s="24"/>
-      <c r="S174" s="24"/>
+      <c r="R174" s="25"/>
+      <c r="S174" s="25"/>
     </row>
     <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
@@ -48307,8 +48298,8 @@
       <c r="P175" t="s">
         <v>1708</v>
       </c>
-      <c r="R175" s="24"/>
-      <c r="S175" s="24"/>
+      <c r="R175" s="25"/>
+      <c r="S175" s="25"/>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176">
@@ -48350,8 +48341,8 @@
       <c r="P176" t="s">
         <v>1708</v>
       </c>
-      <c r="R176" s="24"/>
-      <c r="S176" s="24"/>
+      <c r="R176" s="25"/>
+      <c r="S176" s="25"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177">
@@ -48393,8 +48384,8 @@
       <c r="P177" t="s">
         <v>1708</v>
       </c>
-      <c r="R177" s="24"/>
-      <c r="S177" s="24"/>
+      <c r="R177" s="25"/>
+      <c r="S177" s="25"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178">
@@ -48436,8 +48427,8 @@
       <c r="P178" t="s">
         <v>1708</v>
       </c>
-      <c r="R178" s="24"/>
-      <c r="S178" s="24"/>
+      <c r="R178" s="25"/>
+      <c r="S178" s="25"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179">
@@ -48479,8 +48470,8 @@
       <c r="P179" t="s">
         <v>1708</v>
       </c>
-      <c r="R179" s="24"/>
-      <c r="S179" s="24"/>
+      <c r="R179" s="25"/>
+      <c r="S179" s="25"/>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180">
@@ -48522,8 +48513,8 @@
       <c r="P180" t="s">
         <v>1708</v>
       </c>
-      <c r="R180" s="24"/>
-      <c r="S180" s="24"/>
+      <c r="R180" s="25"/>
+      <c r="S180" s="25"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181">
@@ -48565,8 +48556,8 @@
       <c r="P181" t="s">
         <v>1708</v>
       </c>
-      <c r="R181" s="24"/>
-      <c r="S181" s="24"/>
+      <c r="R181" s="25"/>
+      <c r="S181" s="25"/>
     </row>
     <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
@@ -48599,11 +48590,11 @@
       <c r="P182" t="s">
         <v>1708</v>
       </c>
-      <c r="R182" s="24">
+      <c r="R182" s="25">
         <f>COUNTIF(O182:O192,"*YES*")/COUNTA(O182:O192)</f>
         <v>1</v>
       </c>
-      <c r="S182" s="24">
+      <c r="S182" s="25">
         <f>COUNTIF(P182:P192,"*YES*")/COUNTA(P182:P192)</f>
         <v>1</v>
       </c>
@@ -48639,8 +48630,8 @@
       <c r="P183" t="s">
         <v>1708</v>
       </c>
-      <c r="R183" s="24"/>
-      <c r="S183" s="24"/>
+      <c r="R183" s="25"/>
+      <c r="S183" s="25"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184">
@@ -48682,8 +48673,8 @@
       <c r="P184" t="s">
         <v>1708</v>
       </c>
-      <c r="R184" s="24"/>
-      <c r="S184" s="24"/>
+      <c r="R184" s="25"/>
+      <c r="S184" s="25"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185">
@@ -48725,8 +48716,8 @@
       <c r="P185" t="s">
         <v>1708</v>
       </c>
-      <c r="R185" s="24"/>
-      <c r="S185" s="24"/>
+      <c r="R185" s="25"/>
+      <c r="S185" s="25"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186">
@@ -48768,8 +48759,8 @@
       <c r="P186" t="s">
         <v>1708</v>
       </c>
-      <c r="R186" s="24"/>
-      <c r="S186" s="24"/>
+      <c r="R186" s="25"/>
+      <c r="S186" s="25"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187">
@@ -48811,8 +48802,8 @@
       <c r="P187" t="s">
         <v>1708</v>
       </c>
-      <c r="R187" s="24"/>
-      <c r="S187" s="24"/>
+      <c r="R187" s="25"/>
+      <c r="S187" s="25"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188">
@@ -48854,8 +48845,8 @@
       <c r="P188" t="s">
         <v>1708</v>
       </c>
-      <c r="R188" s="24"/>
-      <c r="S188" s="24"/>
+      <c r="R188" s="25"/>
+      <c r="S188" s="25"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189">
@@ -48897,8 +48888,8 @@
       <c r="P189" t="s">
         <v>1708</v>
       </c>
-      <c r="R189" s="24"/>
-      <c r="S189" s="24"/>
+      <c r="R189" s="25"/>
+      <c r="S189" s="25"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190">
@@ -48940,8 +48931,8 @@
       <c r="P190" t="s">
         <v>1708</v>
       </c>
-      <c r="R190" s="24"/>
-      <c r="S190" s="24"/>
+      <c r="R190" s="25"/>
+      <c r="S190" s="25"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191">
@@ -48983,8 +48974,8 @@
       <c r="P191" t="s">
         <v>1708</v>
       </c>
-      <c r="R191" s="24"/>
-      <c r="S191" s="24"/>
+      <c r="R191" s="25"/>
+      <c r="S191" s="25"/>
     </row>
     <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
@@ -49017,8 +49008,8 @@
       <c r="P192" t="s">
         <v>1708</v>
       </c>
-      <c r="R192" s="24"/>
-      <c r="S192" s="24"/>
+      <c r="R192" s="25"/>
+      <c r="S192" s="25"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
@@ -71719,12 +71710,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="R2:R71"/>
-    <mergeCell ref="S2:S71"/>
-    <mergeCell ref="R72:R74"/>
-    <mergeCell ref="S72:S74"/>
-    <mergeCell ref="R75:R129"/>
-    <mergeCell ref="S75:S129"/>
     <mergeCell ref="R182:R192"/>
     <mergeCell ref="S182:S192"/>
     <mergeCell ref="R130:R150"/>
@@ -71733,6 +71718,12 @@
     <mergeCell ref="S151:S162"/>
     <mergeCell ref="R163:R181"/>
     <mergeCell ref="S163:S181"/>
+    <mergeCell ref="R2:R71"/>
+    <mergeCell ref="S2:S71"/>
+    <mergeCell ref="R72:R74"/>
+    <mergeCell ref="S72:S74"/>
+    <mergeCell ref="R75:R129"/>
+    <mergeCell ref="S75:S129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -73525,8 +73516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD619807-4124-4E65-BB68-420CF378C741}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
